--- a/Manuscripts/src/tables/WS3_testsize.xlsx
+++ b/Manuscripts/src/tables/WS3_testsize.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>69.89 +/- 33.78 (64.35, 75.85)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>64.47 +/- 29.38 (57.27, 72.84)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30 +/- 0.14 (0.24, 0.36)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>69.18 +/- 33.68 (64.51, 75.06)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>66.61 +/- 31.16 (59.18, 74.39)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31 +/- 0.15 (0.25, 0.35)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>69.45 +/- 33.76 (64.74, 75.27)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>67.65 +/- 32.25 (61.43, 74.88)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31 +/- 0.14 (0.25, 0.35)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>69.54 +/- 33.73 (65.24, 75.04)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>67.95 +/- 32.08 (62.13, 75.01)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.30 +/- 0.14 (0.25, 0.35)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67.87 +/- 32.88 (63.23, 72.88)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65.85 +/- 31.35 (60.21, 72.06)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32 +/- 0.15 (0.27, 0.37)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>67.11 +/- 33.10 (62.08, 72.49)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>65.00 +/- 31.63 (58.09, 72.04)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33 +/- 0.16 (0.28, 0.38)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>66.11 +/- 32.43 (61.15, 71.35)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>63.61 +/- 30.34 (56.10, 71.12)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.34 +/- 0.16 (0.29, 0.39)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>64.59 +/- 31.92 (60.42, 69.34)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60.23 +/- 29.49 (53.17, 68.38)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.35 +/- 0.17 (0.31, 0.40)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>61.88 +/- 31.08 (58.57, 66.35)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>55.02 +/- 27.49 (45.77, 64.80)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.38 +/- 0.19 (0.34, 0.41)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>60.31 +/- 30.40 (57.32, 64.33)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>51.32 +/- 25.46 (39.65, 61.67)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.40 +/- 0.19 (0.36, 0.43)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>54.94 +/- 27.89 (53.20, 57.76)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>33.49 +/- 17.25 (10.93, 64.48)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.45 +/- 0.22 (0.42, 0.47)</t>
+          <t>nan +/- nan (nan, nan)</t>
         </is>
       </c>
     </row>
